--- a/images/pokeboy/PokeBoy BOM.xlsx
+++ b/images/pokeboy/PokeBoy BOM.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\More Documents\1 projs\Portfolio Website\images\pokeboy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E2A6F0-A361-422E-9D66-E42B83A4D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Item</t>
   </si>
@@ -97,12 +119,6 @@
     <t>https://www.amazon.com/dp/B0854CG2DQ?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
   </si>
   <si>
-    <t>Resistor (10 k)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Metal-Single-Fixed-Resistor-Tolerance/dp/B0CZJHMVLS/ref=sr_1_4?crid=1Z2PJY98QOROI&amp;dib=eyJ2IjoiMSJ9.D3kwWy4dMpsXRH46Tl4uIR2yb8LPpaHjV8c8EkEhEcxvfEU4QfzixGqMjj6OlHfK4g2YZub1Q3y8EFu6j8u4JBpiISs_YjvnBboFcgXEg9qfZ68v7-OmbGc8wVseisI8YBgt_IQeYs3ZhEBLOOZM-GDLH3_Y7wMTeE4YgYqXg3S3Hjdv-CMruy5RKPXHJgY18deOOoHBx0jDt6EaQluA0dlFnkiippd0ZqvWPEs_jnk.A2z9t_l6MBUlkB-XAT6N4O66cjcmgyhfA9_jBdLIay0&amp;dib_tag=se&amp;keywords=10k%2Bresistor&amp;qid=1746684832&amp;sprefix=10k%2Bresisto%2Caps%2C125&amp;sr=8-4&amp;th=1</t>
-  </si>
-  <si>
     <t>diode (1n5817)</t>
   </si>
   <si>
@@ -119,42 +135,64 @@
   </si>
   <si>
     <t>^Double Click^</t>
+  </si>
+  <si>
+    <t>https://a.co/d/7HDYygv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor (10k &amp; 220) </t>
+  </si>
+  <si>
+    <t>You can use the 470 resistor too, anything between 200-1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +202,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -174,51 +212,49 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -408,23 +444,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,216 +478,219 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>24.99</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>9.99</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
-        <v>17.99</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="2">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>11.99</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5.99</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>6.99</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>5.99</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>5.99</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>9.99</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>9.99</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>8.99</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3">
-        <v>2.59</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B14" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3">
-        <v>5.99</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B16" s="2">
+        <f>SUM(B2:B15)</f>
+        <v>130.86999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6">
-        <f>SUM(B2:B16)</f>
-        <v>127.47</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
-    <hyperlink r:id="rId6" ref="C7"/>
-    <hyperlink r:id="rId7" ref="C8"/>
-    <hyperlink r:id="rId8" ref="C9"/>
-    <hyperlink r:id="rId9" ref="C10"/>
-    <hyperlink r:id="rId10" ref="C11"/>
-    <hyperlink r:id="rId11" ref="C12"/>
-    <hyperlink r:id="rId12" ref="C13"/>
-    <hyperlink r:id="rId13" ref="C14"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{C70C74B8-8102-45BB-BB6D-D51F0930E8E8}"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>